--- a/psp_forms/psp_Agenda.xlsx
+++ b/psp_forms/psp_Agenda.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="16275" windowHeight="6435"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="6720"/>
   </bookViews>
   <sheets>
-    <sheet name="excel(9)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel-2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel_9" localSheetId="0">'excel(9)'!$A$1:$I$39</definedName>
+    <definedName name="excel_2" localSheetId="0">'excel-2'!$A$1:$I$39</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -18,7 +18,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\usuario\Downloads\excel(9).iqy" name="excel(9)" type="4" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\usuario\AppData\Local\Temp\excel-2.iqy" name="excel-2" type="4" refreshedVersion="4" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/tarea4/+/reports/week.class?EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
@@ -120,7 +120,7 @@
     <t>Tareas dependientes por venir para coordinar</t>
   </si>
   <si>
-    <t>Reporte generado a las 08:51 PM el 20/03/2017</t>
+    <t>Reporte generado a las 10:10 PM el 24/03/2017</t>
   </si>
 </sst>
 </file>
@@ -745,9 +745,6 @@
     <xf numFmtId="10" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -756,6 +753,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(9)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel-2" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,9 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1151,17 +1149,17 @@
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1251,10 +1249,10 @@
         <v>0.27</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="5">
@@ -1267,13 +1265,13 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="8">
-        <v>0.15347222222222223</v>
+        <v>0.17083333333333331</v>
       </c>
       <c r="D12" s="8">
         <v>0.22569444444444445</v>
       </c>
       <c r="E12" s="5">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1317,7 +1315,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="8">
-        <v>2.4305555555555556E-2</v>
+        <v>2.7083333333333334E-2</v>
       </c>
       <c r="C17" s="8">
         <v>6.25E-2</v>
@@ -1325,8 +1323,8 @@
       <c r="D17" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="E17" s="10">
-        <v>2.59</v>
+      <c r="E17" s="13">
+        <v>2.3199999999999998</v>
       </c>
       <c r="F17" s="14">
         <v>42819</v>
@@ -1340,7 +1338,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="8">
-        <v>1.5277777777777777E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="C18" s="8">
         <v>6.2499999999999995E-3</v>
@@ -1348,8 +1346,8 @@
       <c r="D18" s="8">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="E18" s="10">
-        <v>0.41</v>
+      <c r="E18" s="13">
+        <v>0.37</v>
       </c>
       <c r="F18" s="14">
         <v>42819</v>
@@ -1363,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="8">
-        <v>1.3888888888888889E-3</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="C19" s="8">
         <v>1.3888888888888889E-3</v>
@@ -1371,8 +1369,8 @@
       <c r="D19" s="8">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E19" s="10">
-        <v>0.83</v>
+      <c r="E19" s="13">
+        <v>0.75</v>
       </c>
       <c r="F19" s="14">
         <v>42819</v>
@@ -1386,7 +1384,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="8">
-        <v>8.0555555555555561E-2</v>
+        <v>8.9583333333333334E-2</v>
       </c>
       <c r="C20" s="8">
         <v>0.10069444444444443</v>
@@ -1394,8 +1392,8 @@
       <c r="D20" s="8">
         <v>0.10069444444444443</v>
       </c>
-      <c r="E20" s="10">
-        <v>1.25</v>
+      <c r="E20" s="13">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F20" s="14">
         <v>42819</v>
@@ -1417,8 +1415,8 @@
       <c r="D21" s="8">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="E21" s="10">
-        <v>2.3199999999999998</v>
+      <c r="E21" s="13">
+        <v>2.08</v>
       </c>
       <c r="F21" s="14">
         <v>42819</v>
@@ -1451,7 +1449,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="8">
-        <v>1.8749999999999999E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C23" s="8">
         <v>3.3333333333333333E-2</v>
@@ -1459,13 +1457,13 @@
       <c r="D23" s="8">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E23" s="10">
-        <v>1.81</v>
+      <c r="E23" s="13">
+        <v>1.62</v>
       </c>
       <c r="F23" s="14">
         <v>42819</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="13">
         <v>0.12</v>
       </c>
     </row>
@@ -1474,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="8">
-        <v>9.7222222222222224E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="C24" s="8">
         <v>1.5277777777777777E-2</v>
@@ -1482,8 +1480,8 @@
       <c r="D24" s="8">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="E24" s="10">
-        <v>1.54</v>
+      <c r="E24" s="13">
+        <v>1.38</v>
       </c>
       <c r="F24" s="14">
         <v>42819</v>
@@ -1497,7 +1495,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="8">
-        <v>0.15347222222222223</v>
+        <v>0.17083333333333331</v>
       </c>
       <c r="C25" s="8">
         <v>0.22569444444444445</v>
@@ -1505,11 +1503,11 @@
       <c r="D25" s="8">
         <v>0.22569444444444445</v>
       </c>
-      <c r="E25" s="10">
-        <v>1.47</v>
+      <c r="E25" s="13">
+        <v>1.32</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="10">
+      <c r="G25" s="13">
         <v>1</v>
       </c>
     </row>
